--- a/Output_testing/R1_201907/Country/HKD/MN/DENMARK_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/DENMARK_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>572.451147</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>16.55799993712514</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>629.530203</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>17.88720077571639</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>808.731646</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>22.29300692113167</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>391.363386</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>21.13197238539469</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-11.56768683124164</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>214.022225</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>6.190536968377115</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>272.120508</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>7.731915225973577</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>300.975197</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>8.296500060305503</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>147.40538</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>7.959268881679725</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-24.36985185092413</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>224.043256</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>6.480392673160826</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>335.386606</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>9.529530958831671</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>229.856134</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.336075027446829</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>137.399731</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.419006031526563</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-14.66389177611333</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>353.983597</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>10.23888310397486</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>280.608898</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>7.973100693277652</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>247.896465</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>6.8333638695883</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>129.202813</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.976407027588712</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-15.53340967935716</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>130.32105</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.769502339220717</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>134.172168</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.812310348403013</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>167.013943</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.603805237052009</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>95.41773499999999</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.152155294100272</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-10.70751933620666</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>132.358402</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.828432213786766</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>143.667361</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>4.082102683680653</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>129.517512</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.570201321667774</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>71.170339</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.842898166276542</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-9.397852363784388</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>109.31219</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.161826549972851</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>105.471373</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.996818287591314</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>164.914266</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>4.545926812082916</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>69.926164</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.775717963214321</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>8.196529345210912</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>166.39658</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>4.812977623709501</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>156.391237</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>4.443633430851681</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>136.92943</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>3.774513765838978</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>65.45845300000001</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.534480410455811</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-6.741379898893074</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>150.937583</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>4.365830172445825</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>131.950175</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.74917559374973</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>118.07622</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>3.254817593326954</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>64.67151699999999</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>3.491989185124188</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-7.493964576927059</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>89.693269</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.594354383331419</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>90.791979</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.579724291953671</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>96.24354700000001</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.652991347620965</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>51.230426</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.766226954925227</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-2.393317669270878</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>1313.728854</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>37.99926403489498</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>1239.354546</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>35.21448770997065</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1227.582575</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>33.8387980439381</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>628.750542</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>33.94987769971395</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-15.74316865932884</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,493 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>9.988099</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>37.32677816629349</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>12.976636</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>51.98887566305505</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>14.619375</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>46.85309976630777</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>7.126238</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>45.8073294678878</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>2.581495296321923</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>13.035613</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>48.71572004969629</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>8.423605</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>33.74786446808624</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>11.900531</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>38.13957615938016</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>5.822136</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>37.42458530838436</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-20.87515309525583</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.664819</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>2.484511951046647</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>0.980468</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>3.928092684699197</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1.639096</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>5.25307876804282</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1.577809</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>10.1421278240214</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>28.583769264433</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>0.913025</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.412088890516614</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1.014648</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>4.065029543386088</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.724118</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>2.320699270425668</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.867264486132336</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-53.03944660619513</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.5132455868753651</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.5003884351414274</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.2810376757971729</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>1.353816569306309</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>831.2978111872651</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.877264020619963</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1.231642478294326</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.8743091676591594</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.9567279823297347</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-21.96403292612594</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>0.936488</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>3.499773063061935</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.741493899398844</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>1.148770463773859</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.8729520931502011</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-10.75090034436529</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>1.07516723168888</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.009518714216582</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.6318804811576787</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.460796316406357</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-39.98258569012575</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.4168681691073251</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.4090271002607541</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.3760369459834819</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>42.85714285714286</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.2252057506274001</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.2866494285331178</v>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>0.549948</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>2.05522462272318</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>1.326156153931612</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>1.205454</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>3.863315396567553</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.4517135778649098</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-91.54635950798472</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1786,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>572.451147</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>16.68715579246507</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>629.530203</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>18.01496549428964</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>808.731646</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>22.4864151353358</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>391.363386</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>21.31098711106794</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-11.56768683124164</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>214.022225</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>6.238824448761238</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>272.120508</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>7.787142759071989</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>300.975197</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>8.368478293950023</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>147.40538</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>8.026694028250441</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-24.36985185092413</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>224.043256</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>6.530941088538225</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>335.386606</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>9.597598503684369</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>229.856134</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.391045133563838</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>137.399731</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.481854463527158</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-14.66389177611333</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>353.952727</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>10.31784865760232</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>280.581414</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>8.029264469696933</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>247.252918</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>6.874754790504564</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>129.202813</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>7.035506082208522</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-15.17654033242417</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>130.32105</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.798905244201791</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>134.172168</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.839540923208149</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>167.013943</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>4.643746630000566</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>95.41773499999999</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.195800612662055</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-10.70751933620666</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>132.358402</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.858294784088748</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>143.667361</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.111260331493029</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>129.517512</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.601175441238806</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>71.170339</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.875452409130924</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-9.397852363784388</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>109.31219</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.186489456969404</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>105.471373</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>3.018223964752891</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>164.914266</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>4.585366067170312</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>69.926164</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.807703104169338</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>8.196529345210912</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>165.460092</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>4.823220893362284</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>155.956553</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>4.462934276250054</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>136.570984</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>3.797294018175843</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>65.322648</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.557026945767553</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-6.732668856713375</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>150.937583</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>4.399884558986005</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>131.950175</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.775955209555657</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>118.07622</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>3.283055527335256</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>64.67151699999999</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>3.521570781892743</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-7.493964576927059</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>120.203326</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.503969968872239</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>125.234783</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>3.583784040350248</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>97.113705</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.700202343708627</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>50.143439</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.730470505060536</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-1.700997176361707</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>1257.42762</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>36.65446510615267</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1180.413501</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>33.77933002764703</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>1196.511832</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>33.26846661901637</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>614.416352</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>33.45693395626279</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-15.9478501699878</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2244,437 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FURSKINS, RAW, OTHER THAN HIDES AND SKINS OF GROUP 211</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1020.82713</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>25.44732199920706</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1880.050966</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>38.57200090021738</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>938.166613</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>22.90021385218455</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>264.291244</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>15.75149064384425</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-65.98758258801911</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>977.086965</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>24.35696102589177</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>950.877241</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>19.50864016941135</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>908.690232</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>22.18070900183611</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>211.476641</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>12.60379376057993</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-55.38755926763436</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>155.565161</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>3.877950171470744</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>263.139931</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>5.398701332554799</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>268.332652</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>6.549876140522831</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>117.413316</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>6.997714795412323</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-30.47816650055655</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>7.013637</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.1748369277024922</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>91.782184</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.883046017313084</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>53.672332</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.310116842481846</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>99.963464</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.957721277827355</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>106.9694398761672</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>264.979741</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>6.605452181206712</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>148.330739</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>3.043222498595768</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>217.253611</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>5.303060333974295</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>90.608807</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.400193188807985</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-20.11262161461757</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>202.379191</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>5.044936883011745</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>233.128434</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>4.78297148786671</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>153.053954</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.735976348928564</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>67.595139</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.02860186895882</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-25.56064136277697</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>13.963664</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.3480881763954839</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>28.207424</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.5787166431108406</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>64.873237</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.583525761839759</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>63.199011</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.76659708963612</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>130.2951570138326</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>65.495974</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.632692834123338</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>57.289785</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.175383901051787</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>105.251317</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.569136051235781</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>63.102654</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>3.760854309962462</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>80.80676251887324</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>4.007444</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.09989812659249202</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1.16823</v>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>10.615671</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.2591236276326898</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>62.099361</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>3.701059062630945</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>94.311026</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>2.350998495404005</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>84.48675799999999</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.733369661018247</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>80.57543</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.966809042938865</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>46.737914</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.785532369297097</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>8.042969918029087</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1205.90075</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>30.06086317899416</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1135.672193</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>23.29997943829563</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1296.27413</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>31.64145299642471</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>591.393292</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>35.24644163304271</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-23.50246852146172</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
